--- a/data.xlsx
+++ b/data.xlsx
@@ -200,10 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.zooseyo.com/dog_sale/photo_free/202202/1644803433_38345400.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강아지무료분양, 진돗개 무료분양합니다.
 귀욤귀욤블랙탄이 남매예요.
 현재 2개월 16일이구요. 사료도 잘 먹고 활발하고 쑥쑥 크고 똑똑해요.
@@ -235,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.zooseyo.com/dog_sale/photo_free/202202/1644801837_11099200.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강아지무료분양, 요크셔테리어 무료분양합니다.
 사람을 잘따르는아이입니다
 어디아픈적없구요
@@ -254,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스코티쉬 폴드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>암</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,10 +259,6 @@
   </si>
   <si>
     <t>스코티쉬 폴드 무료분양합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zooseyo.com/dog_sale/photo_free/1644802535_34241400.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -322,9 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.zooseyo.com/dog_sale/photo_free/202202/1644801459_74476800.jpeg</t>
-  </si>
-  <si>
     <t>유기견무료분양, 믹스견 무료분양합니다.
 [제발 제발 끝까지 읽고 연락주세요]
 깜찍한 4개월 남아 비룡이 평생가족을 찾아요!!</t>
@@ -367,10 +348,6 @@
   </si>
   <si>
     <t>고양이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노르웨이 숲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -394,10 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Norwegian_Forest_Cat_face.jpg/300px-Norwegian_Forest_Cat_face.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,9 +385,6 @@
   <si>
     <t>롭이어 무료분양합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zooseyo.com/dog_sale/photo_free/202202/1644753130_88980000.jpg</t>
   </si>
   <si>
     <t xml:space="preserve"> 
@@ -449,9 +419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.zooseyo.com/dog_sale/photo_free/202202/1644305308_50181700.jpg</t>
-  </si>
-  <si>
     <t>정글리안 무료분양합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,6 +427,42 @@
 안녕하세요.
 드워프 햄스터 45일된 일곱 마리를 무료 분양합니다. 분양 장소는 동덕 여대 올라가는 입구 우측 50 m 풀하
 우스 고시텔 앞으로 오시면 됩니다 문자로 연락 주시기 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zooseyo.com/dog_sale/photo_free/202202/1644803433_38345400.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스코티쉬 폴드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zooseyo.com/dog_sale/photo_free/1644802535_34241400.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zooseyo.com/dog_sale/photo_free/202202/1644801837_11099200.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zooseyo.com/dog_sale/photo_free/202202/1644801459_74476800.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노르웨이 숲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/31/Norwegian_Forest_Cat_face.jpg/300px-Norwegian_Forest_Cat_face.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zooseyo.com/dog_sale/photo_free/202202/1644753130_88980000.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zooseyo.com/dog_sale/photo_free/202202/1644305308_50181700.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -836,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
@@ -868,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -880,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -897,7 +900,7 @@
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>21</v>
@@ -926,7 +929,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>27</v>
@@ -955,10 +958,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -967,7 +970,7 @@
         <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -975,28 +978,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1007,25 +1010,25 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1036,25 +1039,25 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="J8" t="s">
-        <v>59</v>
+      <c r="J8" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1062,28 +1065,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1094,77 +1097,83 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" t="s">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="G12" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J12" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1178,8 +1187,11 @@
     <hyperlink ref="J2" r:id="rId6"/>
     <hyperlink ref="J9" r:id="rId7"/>
     <hyperlink ref="J10" r:id="rId8"/>
+    <hyperlink ref="J8" r:id="rId9"/>
+    <hyperlink ref="J11" r:id="rId10"/>
+    <hyperlink ref="J12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>